--- a/2020s1.xlsx
+++ b/2020s1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16621039-8E67-3A41-94F1-8CD42A118C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E066475-3126-6E49-8DA1-9B890D422D29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27620" windowHeight="15900" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="27620" windowHeight="15900" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="甘特" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="155">
   <si>
     <t>在单元格 B2 中输入公司名称。
 图例位于单元格 I2 到 AC2 中。</t>
@@ -909,7 +908,23 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>汇总</t>
+    <t>KR</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇总</t>
+    </r>
+  </si>
+  <si>
+    <t>全部组员</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1737,7 @@
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -2062,6 +2077,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,16 +2099,25 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="37" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2143,7 +2173,7 @@
     <cellStyle name="着色 6" xfId="46" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="23" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="50">
     <dxf>
       <font>
         <b val="0"/>
@@ -2163,9 +2193,15 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="179" formatCode="#,##0;\-#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2185,15 +2221,18 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2213,6 +2252,13 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2232,6 +2278,8 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2295,6 +2343,23 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2306,6 +2371,117 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <name val="Microsoft YaHei UI"/>
         <family val="2"/>
         <charset val="134"/>
@@ -2544,134 +2720,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="179" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2816,20 +2864,20 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="甘特表格样式" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="totalRow" dxfId="42"/>
-      <tableStyleElement type="firstColumn" dxfId="41"/>
-      <tableStyleElement type="lastColumn" dxfId="40"/>
-      <tableStyleElement type="firstRowStripe" dxfId="39"/>
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="totalRow" dxfId="44"/>
+      <tableStyleElement type="firstColumn" dxfId="43"/>
+      <tableStyleElement type="lastColumn" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="39"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="38"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2982,22 +3030,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="里程碑" displayName="里程碑" ref="B7:L96" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="里程碑" displayName="里程碑" ref="B7:L96" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="B7:L95" xr:uid="{4617FF4A-2322-4A45-920F-C2ABE2A01A6A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="里程碑说明" totalsRowLabel="汇总" dataDxfId="32" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="类别" dataDxfId="31" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="责任人" dataDxfId="30" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="进度" dataDxfId="29" totalsRowDxfId="5" totalsRowCellStyle="百分比"/>
-    <tableColumn id="11" xr3:uid="{A9C7313B-DE4A-9C46-A0FB-B4465FF9449F}" name="说明" dataCellStyle="百分比" totalsRowCellStyle="百分比"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="计划开始日期" dataDxfId="28" totalsRowDxfId="4" dataCellStyle="日期" totalsRowCellStyle="日期"/>
-    <tableColumn id="7" xr3:uid="{B8750787-DD96-4254-96BD-FC7D25CA7A69}" name="计划完成日期" dataDxfId="27" totalsRowDxfId="3" dataCellStyle="千位分隔[0]" totalsRowCellStyle="千位分隔[0]"/>
-    <tableColumn id="15" xr3:uid="{88072946-6D54-4B8C-AEBC-4AFFCC57A88E}" name="计划人日" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="千位分隔[0]" totalsRowCellStyle="千位分隔[0]">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="里程碑说明" totalsRowLabel="汇总" dataDxfId="19" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="类别" dataDxfId="18" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="责任人" dataDxfId="17" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="进度" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A9C7313B-DE4A-9C46-A0FB-B4465FF9449F}" name="说明" totalsRowDxfId="6" dataCellStyle="百分比"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="计划开始日期" dataDxfId="15" totalsRowDxfId="5" dataCellStyle="日期"/>
+    <tableColumn id="7" xr3:uid="{B8750787-DD96-4254-96BD-FC7D25CA7A69}" name="计划完成日期" dataDxfId="14" totalsRowDxfId="4" dataCellStyle="千位分隔[0]"/>
+    <tableColumn id="15" xr3:uid="{88072946-6D54-4B8C-AEBC-4AFFCC57A88E}" name="计划人日" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="3" dataCellStyle="千位分隔[0]">
       <totalsRowFormula>SUM(I28:I83)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CC862207-2E78-4EE8-9AD7-00C1ECD93150}" name="实际开始日期" dataDxfId="26" totalsRowDxfId="1" dataCellStyle="千位分隔[0]" totalsRowCellStyle="千位分隔[0]"/>
-    <tableColumn id="12" xr3:uid="{A42288BC-ED41-4C02-ACCC-1FB8C26B5627}" name="实际完成日期" dataCellStyle="千位分隔[0]" totalsRowCellStyle="千位分隔[0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="实际人日" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="0" totalsRowCellStyle="千位分隔[0]">
+    <tableColumn id="14" xr3:uid="{CC862207-2E78-4EE8-9AD7-00C1ECD93150}" name="实际开始日期" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="千位分隔[0]"/>
+    <tableColumn id="12" xr3:uid="{A42288BC-ED41-4C02-ACCC-1FB8C26B5627}" name="实际完成日期" totalsRowDxfId="1" dataCellStyle="千位分隔[0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="实际人日" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0">
       <calculatedColumnFormula>里程碑[[#This Row],[实际完成日期]]-里程碑[[#This Row],[实际开始日期]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3280,7 +3328,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -3323,36 +3371,36 @@
         <v>14</v>
       </c>
       <c r="O1" s="7"/>
-      <c r="P1" s="134" t="s">
+      <c r="P1" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="U1" s="135" t="s">
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="U1" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Z1" s="136" t="s">
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Z1" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AE1" s="131" t="s">
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AE1" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AJ1" s="132" t="s">
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="133"/>
+      <c r="AJ1" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
     </row>
     <row r="2" spans="1:69" s="82" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="81" t="s">
@@ -3435,18 +3483,18 @@
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
       <c r="N5" s="18">
         <f ca="1">IFERROR(项目开始日期+滚动增量,TODAY())</f>
         <v>43829</v>
@@ -4244,7 +4292,9 @@
       <c r="B9" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D9" s="130" t="s">
         <v>45</v>
       </c>
@@ -6015,7 +6065,9 @@
       <c r="B16" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" s="44" t="s">
         <v>45</v>
       </c>
@@ -7530,7 +7582,9 @@
       <c r="B22" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D22" s="44" t="s">
         <v>20</v>
       </c>
@@ -8797,7 +8851,9 @@
       <c r="B27" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D27" s="44" t="s">
         <v>19</v>
       </c>
@@ -10825,7 +10881,9 @@
       <c r="B35" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D35" s="44" t="s">
         <v>36</v>
       </c>
@@ -15055,7 +15113,9 @@
       <c r="B54" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="44"/>
+      <c r="C54" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D54" s="44" t="s">
         <v>36</v>
       </c>
@@ -16055,7 +16115,9 @@
       <c r="B58" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="44"/>
+      <c r="C58" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D58" s="44" t="s">
         <v>36</v>
       </c>
@@ -17320,7 +17382,9 @@
       <c r="B63" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="44"/>
+      <c r="C63" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D63" s="44" t="s">
         <v>36</v>
       </c>
@@ -19635,7 +19699,9 @@
       <c r="B72" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="44"/>
+      <c r="C72" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D72" s="44" t="s">
         <v>36</v>
       </c>
@@ -22646,7 +22712,9 @@
       <c r="B85" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="44"/>
+      <c r="C85" s="109" t="s">
+        <v>152</v>
+      </c>
       <c r="D85" s="44" t="s">
         <v>36</v>
       </c>
@@ -23138,7 +23206,9 @@
       <c r="B87" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="52"/>
+      <c r="C87" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="D87" s="38" t="s">
         <v>59</v>
       </c>
@@ -23393,7 +23463,9 @@
       <c r="B88" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="52"/>
+      <c r="C88" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="D88" s="38" t="s">
         <v>60</v>
       </c>
@@ -23480,7 +23552,9 @@
       <c r="B89" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="52"/>
+      <c r="C89" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="D89" s="38" t="s">
         <v>65</v>
       </c>
@@ -23986,7 +24060,9 @@
       <c r="B91" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="52"/>
+      <c r="C91" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="D91" s="38" t="s">
         <v>59</v>
       </c>
@@ -24243,7 +24319,9 @@
       <c r="B92" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="52"/>
+      <c r="C92" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="D92" s="38" t="s">
         <v>60</v>
       </c>
@@ -24496,6 +24574,9 @@
     <row r="93" spans="1:69" ht="30" customHeight="1">
       <c r="B93" s="51" t="s">
         <v>104</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>65</v>
@@ -25065,82 +25146,82 @@
     </row>
     <row r="96" spans="1:69" s="129" customFormat="1" ht="30" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="138" t="s">
-        <v>152</v>
+      <c r="B96" s="132" t="s">
+        <v>153</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="139">
+      <c r="E96" s="143"/>
+      <c r="F96" s="139"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="141"/>
+      <c r="I96" s="142">
         <f>SUM(I28:I83)</f>
         <v>85</v>
       </c>
-      <c r="J96" s="77"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="140">
+      <c r="J96" s="141"/>
+      <c r="K96" s="140"/>
+      <c r="L96" s="145">
         <f>SUBTOTAL(109,里程碑[实际人日])</f>
         <v>0</v>
       </c>
       <c r="M96" s="13"/>
-      <c r="N96" s="137"/>
-      <c r="O96" s="137"/>
-      <c r="P96" s="137"/>
-      <c r="Q96" s="137"/>
-      <c r="R96" s="137"/>
-      <c r="S96" s="137"/>
-      <c r="T96" s="137"/>
-      <c r="U96" s="137"/>
-      <c r="V96" s="137"/>
-      <c r="W96" s="137"/>
-      <c r="X96" s="137"/>
-      <c r="Y96" s="137"/>
-      <c r="Z96" s="137"/>
-      <c r="AA96" s="137"/>
-      <c r="AB96" s="137"/>
-      <c r="AC96" s="137"/>
-      <c r="AD96" s="137"/>
-      <c r="AE96" s="137"/>
-      <c r="AF96" s="137"/>
-      <c r="AG96" s="137"/>
-      <c r="AH96" s="137"/>
-      <c r="AI96" s="137"/>
-      <c r="AJ96" s="137"/>
-      <c r="AK96" s="137"/>
-      <c r="AL96" s="137"/>
-      <c r="AM96" s="137"/>
-      <c r="AN96" s="137"/>
-      <c r="AO96" s="137"/>
-      <c r="AP96" s="137"/>
-      <c r="AQ96" s="137"/>
-      <c r="AR96" s="137"/>
-      <c r="AS96" s="137"/>
-      <c r="AT96" s="137"/>
-      <c r="AU96" s="137"/>
-      <c r="AV96" s="137"/>
-      <c r="AW96" s="137"/>
-      <c r="AX96" s="137"/>
-      <c r="AY96" s="137"/>
-      <c r="AZ96" s="137"/>
-      <c r="BA96" s="137"/>
-      <c r="BB96" s="137"/>
-      <c r="BC96" s="137"/>
-      <c r="BD96" s="137"/>
-      <c r="BE96" s="137"/>
-      <c r="BF96" s="137"/>
-      <c r="BG96" s="137"/>
-      <c r="BH96" s="137"/>
-      <c r="BI96" s="137"/>
-      <c r="BJ96" s="137"/>
-      <c r="BK96" s="137"/>
-      <c r="BL96" s="137"/>
-      <c r="BM96" s="137"/>
-      <c r="BN96" s="137"/>
-      <c r="BO96" s="137"/>
-      <c r="BP96" s="137"/>
-      <c r="BQ96" s="137"/>
+      <c r="N96" s="131"/>
+      <c r="O96" s="131"/>
+      <c r="P96" s="131"/>
+      <c r="Q96" s="131"/>
+      <c r="R96" s="131"/>
+      <c r="S96" s="131"/>
+      <c r="T96" s="131"/>
+      <c r="U96" s="131"/>
+      <c r="V96" s="131"/>
+      <c r="W96" s="131"/>
+      <c r="X96" s="131"/>
+      <c r="Y96" s="131"/>
+      <c r="Z96" s="131"/>
+      <c r="AA96" s="131"/>
+      <c r="AB96" s="131"/>
+      <c r="AC96" s="131"/>
+      <c r="AD96" s="131"/>
+      <c r="AE96" s="131"/>
+      <c r="AF96" s="131"/>
+      <c r="AG96" s="131"/>
+      <c r="AH96" s="131"/>
+      <c r="AI96" s="131"/>
+      <c r="AJ96" s="131"/>
+      <c r="AK96" s="131"/>
+      <c r="AL96" s="131"/>
+      <c r="AM96" s="131"/>
+      <c r="AN96" s="131"/>
+      <c r="AO96" s="131"/>
+      <c r="AP96" s="131"/>
+      <c r="AQ96" s="131"/>
+      <c r="AR96" s="131"/>
+      <c r="AS96" s="131"/>
+      <c r="AT96" s="131"/>
+      <c r="AU96" s="131"/>
+      <c r="AV96" s="131"/>
+      <c r="AW96" s="131"/>
+      <c r="AX96" s="131"/>
+      <c r="AY96" s="131"/>
+      <c r="AZ96" s="131"/>
+      <c r="BA96" s="131"/>
+      <c r="BB96" s="131"/>
+      <c r="BC96" s="131"/>
+      <c r="BD96" s="131"/>
+      <c r="BE96" s="131"/>
+      <c r="BF96" s="131"/>
+      <c r="BG96" s="131"/>
+      <c r="BH96" s="131"/>
+      <c r="BI96" s="131"/>
+      <c r="BJ96" s="131"/>
+      <c r="BK96" s="131"/>
+      <c r="BL96" s="131"/>
+      <c r="BM96" s="131"/>
+      <c r="BN96" s="131"/>
+      <c r="BO96" s="131"/>
+      <c r="BP96" s="131"/>
+      <c r="BQ96" s="131"/>
     </row>
     <row r="97" spans="2:69" ht="30" customHeight="1" thickBot="1">
       <c r="B97" s="30" t="s">
@@ -25234,15 +25315,15 @@
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <conditionalFormatting sqref="N5:BQ45 N49:BQ97">
-    <cfRule type="expression" dxfId="24" priority="85">
+    <cfRule type="expression" dxfId="37" priority="85">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:BQ4">
-    <cfRule type="expression" dxfId="23" priority="124">
+    <cfRule type="expression" dxfId="36" priority="124">
       <formula>AND(N$5&lt;=EOMONTH($N$5,1),N$5&gt;EOMONTH($N$5,0))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="126">
+    <cfRule type="expression" dxfId="35" priority="126">
       <formula>N$5&lt;=EOMONTH($N$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25261,41 +25342,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:BQ96">
-    <cfRule type="expression" dxfId="21" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="706" stopIfTrue="1">
       <formula>AND($D8="大魁",N$5&gt;=$J8,N$5&lt;=MIN($K8,TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:BQ4">
-    <cfRule type="expression" dxfId="20" priority="125">
+    <cfRule type="expression" dxfId="33" priority="125">
       <formula>AND(O$5&lt;=EOMONTH($N$5,2),O$5&gt;EOMONTH($N$5,0),O$5&gt;EOMONTH($N$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:BQ97">
-    <cfRule type="expression" dxfId="19" priority="703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="703" stopIfTrue="1">
       <formula>AND($D8="zeta",N$5&gt;=$J8,N$5&lt;=MIN($K8,TODAY()))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="704" stopIfTrue="1">
       <formula>AND($D8="盼盼",N$5&gt;=$J8,N$5&lt;=MIN($K8,TODAY()))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="705" stopIfTrue="1">
       <formula>AND($D8="新铜",N$5&gt;=$J8,N$5&lt;=MIN($K8,TODAY()))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="707" stopIfTrue="1">
       <formula>AND($D8="外部资源",N$5&gt;=$J8,N$5&lt;=MIN($K8,TODAY()))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="708" stopIfTrue="1">
       <formula>AND($D8="zeta",N$5&gt;=$G8,N$5&lt;=$H8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="709" stopIfTrue="1">
       <formula>AND($D8="盼盼",N$5&gt;=$G8,N$5&lt;=$H8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="710" stopIfTrue="1">
       <formula>AND($D8="新铜",N$5&gt;=$G8,N$5&lt;=$H8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="711" stopIfTrue="1">
       <formula>AND($D8="大魁",N$5&gt;=$G8,N$5&lt;=$H8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="712" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="712" stopIfTrue="1">
       <formula>AND($D8="外部资源",N$5&gt;=$G8,N$5&lt;=$H8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25328,12 +25409,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:BQ48">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C34 C12:C26 C64:C94 C40:C62" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C34 C23:C26 C59:C62 C12:C15 C17:C21 C40:C53 C55:C57 C64:C71 C73:C84 C86 C90 C94" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"目标/里程碑,算法, 产品, 运营, 研发"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="滚动增量" prompt="更改此数字将滚动甘特图视图。" sqref="H4:I4 K2" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -25341,6 +25422,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55:D56 D64:D70 D86:D93 D28:D34 D73:D83 D23:D25 D10:D14 D18:D20 D36:D52" xr:uid="{94F4CE08-5FE3-4D8A-A0A3-05175995E268}">
       <formula1>"大魁,新铜,zeta,盼盼,外部资源"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87:C89 C91:C93" xr:uid="{57FAECBD-64AF-9C46-A447-CA716095A9FA}">
+      <formula1>"目标/里程碑,算法, 产品, 运营, 研发,全部组员"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
